--- a/VersionRecords/Version 5.2.2/版本Bug和特性计划及评审表v5.2.2.xlsx
+++ b/VersionRecords/Version 5.2.2/版本Bug和特性计划及评审表v5.2.2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.2.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="11745" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,16 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -413,6 +418,9 @@
   <si>
     <t>优化、升级</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFZWYH-215</t>
   </si>
 </sst>
 </file>
@@ -431,39 +439,41 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -471,12 +481,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -484,35 +496,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -525,6 +540,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -551,11 +567,13 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1131,7 +1149,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1145,7 +1163,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1492,37 +1510,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="30.25" style="48" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="33.25" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="47" customWidth="1"/>
     <col min="15" max="15" width="10" style="48" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="48" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="48" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="48" customWidth="1"/>
     <col min="18" max="18" width="12" style="85" customWidth="1"/>
     <col min="19" max="19" width="17" style="49" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="49" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="48" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="41.83203125" style="48" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1769,9 @@
       <c r="Q4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="58"/>
+      <c r="R4" s="58" t="s">
+        <v>110</v>
+      </c>
       <c r="S4" s="58"/>
       <c r="T4" s="58" t="s">
         <v>102</v>
@@ -1872,7 +1892,7 @@
       </c>
       <c r="U6" s="59"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -1919,7 +1939,7 @@
       <c r="U8" s="53"/>
       <c r="V8" s="78"/>
     </row>
-    <row r="9" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
@@ -1943,7 +1963,7 @@
       <c r="U9" s="77"/>
       <c r="V9" s="78"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1966,7 +1986,7 @@
       <c r="T10" s="58"/>
       <c r="U10" s="59"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1989,7 +2009,7 @@
       <c r="T11" s="58"/>
       <c r="U11" s="59"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -2012,7 +2032,7 @@
       <c r="T12" s="58"/>
       <c r="U12" s="59"/>
     </row>
-    <row r="13" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -2036,7 +2056,7 @@
       <c r="U13" s="77"/>
       <c r="V13" s="78"/>
     </row>
-    <row r="14" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
@@ -2060,7 +2080,7 @@
       <c r="U14" s="77"/>
       <c r="V14" s="78"/>
     </row>
-    <row r="15" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -2084,7 +2104,7 @@
       <c r="U15" s="77"/>
       <c r="V15" s="78"/>
     </row>
-    <row r="16" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -2108,7 +2128,7 @@
       <c r="U16" s="77"/>
       <c r="V16" s="78"/>
     </row>
-    <row r="17" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -2132,7 +2152,7 @@
       <c r="U17" s="77"/>
       <c r="V17" s="78"/>
     </row>
-    <row r="18" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -2156,7 +2176,7 @@
       <c r="U18" s="77"/>
       <c r="V18" s="78"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="52"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
@@ -2179,7 +2199,7 @@
       <c r="T19" s="58"/>
       <c r="U19" s="77"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -2202,7 +2222,7 @@
       <c r="T20" s="58"/>
       <c r="U20" s="77"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="52"/>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
@@ -2225,7 +2245,7 @@
       <c r="T21" s="74"/>
       <c r="U21" s="79"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="52"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -2248,7 +2268,7 @@
       <c r="T22" s="75"/>
       <c r="U22" s="79"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="52"/>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
@@ -2271,7 +2291,7 @@
       <c r="T23" s="76"/>
       <c r="U23" s="79"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
@@ -2294,7 +2314,7 @@
       <c r="T24" s="75"/>
       <c r="U24" s="79"/>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -2317,7 +2337,7 @@
       <c r="T25" s="75"/>
       <c r="U25" s="79"/>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="52"/>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
@@ -2340,7 +2360,7 @@
       <c r="T26" s="73"/>
       <c r="U26" s="66"/>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="52"/>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
@@ -2363,7 +2383,7 @@
       <c r="T27" s="58"/>
       <c r="U27" s="77"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="52"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -2386,7 +2406,7 @@
       <c r="T28" s="58"/>
       <c r="U28" s="77"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="52"/>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
@@ -2409,7 +2429,7 @@
       <c r="T29" s="58"/>
       <c r="U29" s="77"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="52"/>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
@@ -2432,7 +2452,7 @@
       <c r="T30" s="75"/>
       <c r="U30" s="79"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="52"/>
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
@@ -2455,7 +2475,7 @@
       <c r="T31" s="58"/>
       <c r="U31" s="53"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="52"/>
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
@@ -2478,7 +2498,7 @@
       <c r="T32" s="58"/>
       <c r="U32" s="77"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
@@ -2501,7 +2521,7 @@
       <c r="T33" s="58"/>
       <c r="U33" s="77"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -2524,7 +2544,7 @@
       <c r="T34" s="58"/>
       <c r="U34" s="77"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="52"/>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2547,7 +2567,7 @@
       <c r="T35" s="58"/>
       <c r="U35" s="77"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="52"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
@@ -2570,7 +2590,7 @@
       <c r="T36" s="58"/>
       <c r="U36" s="77"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="52"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2593,7 +2613,7 @@
       <c r="T37" s="58"/>
       <c r="U37" s="77"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="52"/>
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
@@ -2616,7 +2636,7 @@
       <c r="T38" s="58"/>
       <c r="U38" s="77"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="52"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2639,7 +2659,7 @@
       <c r="T39" s="58"/>
       <c r="U39" s="77"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="52"/>
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
@@ -2662,7 +2682,7 @@
       <c r="T40" s="58"/>
       <c r="U40" s="77"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="52"/>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -2685,7 +2705,7 @@
       <c r="T41" s="58"/>
       <c r="U41" s="77"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="52"/>
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
@@ -2708,7 +2728,7 @@
       <c r="T42" s="73"/>
       <c r="U42" s="77"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
@@ -2731,7 +2751,7 @@
       <c r="T43" s="73"/>
       <c r="U43" s="77"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="52"/>
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
@@ -2754,7 +2774,7 @@
       <c r="T44" s="58"/>
       <c r="U44" s="59"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="52"/>
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
@@ -2777,7 +2797,7 @@
       <c r="T45" s="58"/>
       <c r="U45" s="59"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="52"/>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
@@ -2800,7 +2820,7 @@
       <c r="T46" s="58"/>
       <c r="U46" s="59"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="52"/>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -2823,7 +2843,7 @@
       <c r="T47" s="58"/>
       <c r="U47" s="59"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="52"/>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
@@ -2846,7 +2866,7 @@
       <c r="T48" s="58"/>
       <c r="U48" s="59"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="52"/>
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
@@ -2869,7 +2889,7 @@
       <c r="T49" s="58"/>
       <c r="U49" s="59"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="52"/>
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
@@ -2892,7 +2912,7 @@
       <c r="T50" s="58"/>
       <c r="U50" s="59"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
       <c r="C51" s="58"/>
@@ -2915,7 +2935,7 @@
       <c r="T51" s="58"/>
       <c r="U51" s="59"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
       <c r="C52" s="58"/>
@@ -2938,7 +2958,7 @@
       <c r="T52" s="58"/>
       <c r="U52" s="59"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="58"/>
       <c r="B53" s="58"/>
       <c r="C53" s="58"/>
@@ -2961,7 +2981,7 @@
       <c r="T53" s="58"/>
       <c r="U53" s="59"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
@@ -2984,7 +3004,7 @@
       <c r="T54" s="58"/>
       <c r="U54" s="59"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="58"/>
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
@@ -3007,7 +3027,7 @@
       <c r="T55" s="58"/>
       <c r="U55" s="59"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="58"/>
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
@@ -3030,7 +3050,7 @@
       <c r="T56" s="58"/>
       <c r="U56" s="59"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="58"/>
       <c r="B57" s="58"/>
       <c r="C57" s="58"/>
@@ -3053,7 +3073,7 @@
       <c r="T57" s="58"/>
       <c r="U57" s="59"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
       <c r="C58" s="58"/>
@@ -3076,7 +3096,7 @@
       <c r="T58" s="58"/>
       <c r="U58" s="59"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
       <c r="C59" s="58"/>
@@ -3099,7 +3119,7 @@
       <c r="T59" s="58"/>
       <c r="U59" s="59"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
@@ -3122,7 +3142,7 @@
       <c r="T60" s="58"/>
       <c r="U60" s="59"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="58"/>
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
@@ -3145,7 +3165,7 @@
       <c r="T61" s="58"/>
       <c r="U61" s="59"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="58"/>
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
@@ -3168,7 +3188,7 @@
       <c r="T62" s="58"/>
       <c r="U62" s="59"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="58"/>
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
@@ -3191,7 +3211,7 @@
       <c r="T63" s="58"/>
       <c r="U63" s="59"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="58"/>
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
@@ -3214,7 +3234,7 @@
       <c r="T64" s="58"/>
       <c r="U64" s="59"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="58"/>
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
@@ -3237,7 +3257,7 @@
       <c r="T65" s="58"/>
       <c r="U65" s="59"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
@@ -3260,7 +3280,7 @@
       <c r="T66" s="58"/>
       <c r="U66" s="59"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="58"/>
       <c r="B67" s="58"/>
       <c r="C67" s="58"/>
@@ -3283,7 +3303,7 @@
       <c r="T67" s="58"/>
       <c r="U67" s="59"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="58"/>
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
@@ -3306,7 +3326,7 @@
       <c r="T68" s="58"/>
       <c r="U68" s="59"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="58"/>
       <c r="B69" s="58"/>
       <c r="C69" s="58"/>
@@ -3329,7 +3349,7 @@
       <c r="T69" s="58"/>
       <c r="U69" s="59"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="58"/>
       <c r="B70" s="58"/>
       <c r="C70" s="58"/>
@@ -3352,7 +3372,7 @@
       <c r="T70" s="58"/>
       <c r="U70" s="59"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="58"/>
       <c r="B71" s="58"/>
       <c r="C71" s="58"/>
@@ -3375,7 +3395,7 @@
       <c r="T71" s="58"/>
       <c r="U71" s="59"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="58"/>
       <c r="B72" s="58"/>
       <c r="C72" s="58"/>
@@ -5523,25 +5543,25 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="38.25" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="38.1640625" customWidth="1"/>
     <col min="11" max="11" width="35.5" customWidth="1"/>
-    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
     <col min="13" max="13" width="53.5" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -5666,19 +5686,19 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="87" t="s">
         <v>47</v>
       </c>
@@ -5693,7 +5713,7 @@
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
         <v>48</v>
       </c>
@@ -5728,7 +5748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="24"/>
@@ -5741,7 +5761,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="90"/>
       <c r="B4" s="91"/>
       <c r="C4" s="24"/>
@@ -5754,7 +5774,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="24"/>
@@ -5767,7 +5787,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="91"/>
       <c r="B6" s="91"/>
       <c r="C6" s="24"/>
@@ -5780,7 +5800,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="91"/>
       <c r="B7" s="91"/>
       <c r="C7" s="24"/>
@@ -5793,7 +5813,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="91"/>
       <c r="B8" s="91"/>
       <c r="C8" s="24"/>
@@ -5806,7 +5826,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="91"/>
       <c r="B9" s="91"/>
       <c r="C9" s="24"/>
@@ -5819,7 +5839,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="32"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="90"/>
       <c r="B10" s="90"/>
       <c r="C10" s="24"/>
@@ -5832,7 +5852,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="24"/>
@@ -5866,19 +5886,19 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -5913,7 +5933,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
@@ -5954,7 +5974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5969,7 +5989,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5984,7 +6004,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -5999,7 +6019,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6014,7 +6034,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6029,7 +6049,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6044,7 +6064,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -6059,7 +6079,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -6074,7 +6094,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -6089,7 +6109,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -6104,7 +6124,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -6119,7 +6139,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6134,7 +6154,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6180,19 +6200,19 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -6227,7 +6247,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
@@ -6268,7 +6288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -6283,7 +6303,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -6298,7 +6318,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6313,7 +6333,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6328,7 +6348,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6343,7 +6363,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6358,7 +6378,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -6373,7 +6393,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -6388,7 +6408,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -6403,7 +6423,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -6418,7 +6438,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -6433,7 +6453,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6448,7 +6468,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6494,19 +6514,19 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -6541,7 +6561,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
@@ -6582,7 +6602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -6597,7 +6617,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -6612,7 +6632,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6627,7 +6647,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6642,7 +6662,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6657,7 +6677,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6672,7 +6692,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -6687,7 +6707,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -6702,7 +6722,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -6717,7 +6737,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -6732,7 +6752,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -6747,7 +6767,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6762,7 +6782,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6808,21 +6828,21 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -6857,7 +6877,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="95"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
@@ -6898,7 +6918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -6913,7 +6933,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -6928,7 +6948,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6943,7 +6963,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6958,7 +6978,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6973,7 +6993,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6988,7 +7008,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7003,7 +7023,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -7018,7 +7038,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -7033,7 +7053,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -7048,7 +7068,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -7063,7 +7083,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -7078,7 +7098,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -7124,15 +7144,15 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
